--- a/testData/mobileData/qqScene/orderCommodityAction.xlsx
+++ b/testData/mobileData/qqScene/orderCommodityAction.xlsx
@@ -1,13 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\John\work\airtestLearning\newwebtest\webtest\testData\mobileData\qqScene\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E3A071-FD48-487B-B0F9-E76A1B4A7AA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="720" yWindow="2340" windowWidth="22125" windowHeight="9825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="普通商品" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -18,12 +24,238 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+  <si>
+    <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关键字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片名称或app原生路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阈值(threshold)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标位置(target_pos)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RGB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试执行时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误截图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待2秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击立即打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touchTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即打开.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击立即购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即购买.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击提交订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交订单.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待出现京东收银台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waitTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东收银台.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击我的电脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>touchTarget</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的电脑.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击输入框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ输入框.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>textInput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送按钮.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击最后一个http链接</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>findAndTouchLast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待2秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sleep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>waitAndTouch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待提示窗并点击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>允许呼起.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>existsAndTouch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断点击确定按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确定按钮.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待2秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单中心.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击订单中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待付款.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://u.jd.com/6sXEJa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击待付款订单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -37,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,15 +277,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +589,422 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="24.125" customWidth="1"/>
+    <col min="5" max="5" width="13.75" customWidth="1"/>
+    <col min="6" max="6" width="18.125" customWidth="1"/>
+    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="8" max="8" width="12.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="5">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="2">
+        <v>2</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="2">
+        <v>3</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
+        <v>13</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D4" r:id="rId1" xr:uid="{81C171A3-1615-4D9C-BE9D-E5A2C6E4FB22}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>